--- a/학사관리 샘플데이터/샘플-성적데이터.xlsx
+++ b/학사관리 샘플데이터/샘플-성적데이터.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\Reference\샘플데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\학사관리 샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="성적데이터" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,12 +410,28 @@
   </si>
   <si>
     <t>S0100</t>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -777,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7356,4 +7373,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>